--- a/20250216report_table1.xlsx
+++ b/20250216report_table1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\paperwork\0_UCSB_DWR_Project\2025_RT_Reports\20250216_RT_Report\RT_CanAdj_rcn_noSW_woCCR_BiasCorrection\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\paperwork\0_UCSB_DWR_Project\2025_RT_Reports\20250216_RT_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB92D4-A505-4131-B3D9-21F4D078D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62DBA4-DAC4-410C-84B1-CBDBC2CDA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Pillows</t>
   </si>
   <si>
-    <t>SNODAS* (in)</t>
-  </si>
-  <si>
     <t>Trinity</t>
   </si>
   <si>
@@ -268,25 +265,28 @@
     <t>11.9 ( 5 )</t>
   </si>
   <si>
+    <t>SNODAS*(in)</t>
+  </si>
+  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>§ Data in all ASO-collected basins have been bias-corrected using ASO data and therefore the SWE changes might not represent snowmelt/accumulation but rather an update to the SWE estimates based on airborne data.</t>
+  </si>
+  <si>
+    <t>† Deep and recent snow in areas that typically are snow-free can report high percent of average for this date because the mean 2001-2021 regression-derived SWE for that area is low or 0.</t>
+  </si>
+  <si>
+    <t>‡ For volume totals above Shasta Lake add Upper Sac, McCloud and Pit volumes. For volume totals above Bend Bridge add Upper Sac, McCloud, Pit and Sac at Bend Bridge volumes.</t>
+  </si>
+  <si>
+    <t>* This is a comparison to the SNODAS (SNOw Data Assimilation System) nationwide product from the National Weather Service.</t>
+  </si>
+  <si>
     <t>Vol (af)‡</t>
   </si>
   <si>
-    <t>&gt;5,000'</t>
-  </si>
-  <si>
-    <t>§ Data in all ASO-collected basins have been bias-corrected using ASO data and therefore the SWE changes might not represent snowmelt/accumulation but rather an update to the SWE estimates based on airborne data.</t>
-  </si>
-  <si>
-    <t>† Deep and recent snow in areas that typically are snow-free can report high percent of average for this date because the mean 2001-2021 regression-derived SWE for that area is low or 0.</t>
-  </si>
-  <si>
-    <t>‡ For volume totals above Shasta Lake add Upper Sac, McCloud and Pit volumes. For volume totals above Bend Bridge add Upper Sac, McCloud, Pit and Sac at Bend Bridge volumes.</t>
-  </si>
-  <si>
-    <t>* This is a comparison to the SNODAS (SNOw Data Assimilation System) nationwide product from the National Weather Service.</t>
+    <t>&gt;5000'</t>
   </si>
 </sst>
 </file>
@@ -340,72 +340,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -439,17 +379,76 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -460,16 +459,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -477,11 +497,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -491,49 +526,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,98 +898,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:A34"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.53125" customWidth="1"/>
-    <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.06640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.06640625" style="1"/>
-    <col min="5" max="5" width="10.265625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.53125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.73046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.73046875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.9296875" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" customWidth="1"/>
+    <col min="8" max="8" width="12.46484375" customWidth="1"/>
+    <col min="9" max="9" width="12.06640625" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" customWidth="1"/>
+    <col min="11" max="11" width="15.46484375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="14"/>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="15" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>108</v>
@@ -945,31 +1009,31 @@
       <c r="F3" s="1">
         <v>86.3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="2">
         <v>387795</v>
       </c>
       <c r="H3" s="1">
         <v>321.39999999999998</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="15" t="s">
         <v>12</v>
-      </c>
-      <c r="K3" s="15">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>95</v>
       </c>
       <c r="C4" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1">
         <v>12.4</v>
@@ -980,25 +1044,25 @@
       <c r="F4" s="1">
         <v>78.7</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="2">
         <v>137992</v>
       </c>
       <c r="H4" s="1">
         <v>115.2</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="20">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="K4" s="15">
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>96</v>
@@ -1015,31 +1079,31 @@
       <c r="F5" s="1">
         <v>78.8</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="2">
         <v>176704</v>
       </c>
       <c r="H5" s="1">
         <v>164.9</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="20">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6" s="15" t="s">
         <v>18</v>
-      </c>
-      <c r="K5" s="15">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
       </c>
       <c r="C6" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1">
         <v>3.2</v>
@@ -1050,66 +1114,66 @@
       <c r="F6" s="1">
         <v>36</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="2">
         <v>745023</v>
       </c>
       <c r="H6" s="1">
         <v>2064.6999999999998</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="20">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="15">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="9">
+        <v>36</v>
+      </c>
+      <c r="C7" s="9">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>26.9</v>
+      </c>
+      <c r="G7" s="10">
+        <v>95481</v>
+      </c>
+      <c r="H7" s="9">
+        <v>239.6</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="21">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1">
-        <v>60</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>26.9</v>
-      </c>
-      <c r="G7" s="9">
-        <v>95481</v>
-      </c>
-      <c r="H7" s="1">
-        <v>239.6</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="15">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>51</v>
       </c>
       <c r="C8" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1">
         <v>4.9000000000000004</v>
@@ -1120,31 +1184,31 @@
       <c r="F8" s="1">
         <v>52</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="2">
         <v>1023178</v>
       </c>
       <c r="H8" s="1">
         <v>2086.6</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="20">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="K8" s="15">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="B9" s="1">
         <v>65</v>
       </c>
       <c r="C9" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1">
         <v>7.8</v>
@@ -1155,25 +1219,25 @@
       <c r="F9" s="1">
         <v>60.4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="2">
         <v>393708</v>
       </c>
       <c r="H9" s="1">
         <v>516.6</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="20">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="K9" s="15">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>56</v>
@@ -1190,60 +1254,60 @@
       <c r="F10" s="1">
         <v>54.3</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="2">
         <v>481081</v>
       </c>
       <c r="H10" s="1">
         <v>792.5</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="20">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="15">
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="9">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9">
+        <v>25</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="E11" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="F11" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="G11" s="10">
+        <v>14126</v>
+      </c>
+      <c r="H11" s="9">
+        <v>91.9</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="21">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="G11" s="9">
-        <v>14126</v>
-      </c>
-      <c r="H11" s="1">
-        <v>91.9</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K11" s="15">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>56</v>
@@ -1260,25 +1324,25 @@
       <c r="F12" s="1">
         <v>57.9</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="2">
         <v>196500</v>
       </c>
       <c r="H12" s="1">
         <v>314.60000000000002</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="20">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="K12" s="15">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="B13" s="1">
         <v>55</v>
@@ -1295,31 +1359,31 @@
       <c r="F13" s="1">
         <v>65.3</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="2">
         <v>367879</v>
       </c>
       <c r="H13" s="1">
         <v>557.29999999999995</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="20">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="K13" s="15">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>57</v>
       </c>
       <c r="C14" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1">
         <v>6.8</v>
@@ -1330,60 +1394,60 @@
       <c r="F14" s="1">
         <v>65.900000000000006</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="2">
         <v>619433</v>
       </c>
       <c r="H14" s="1">
         <v>910</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="20">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="15">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+      <c r="B15" s="9">
+        <v>54</v>
+      </c>
+      <c r="C15" s="9">
+        <v>79</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="E15" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="F15" s="9">
+        <v>59.7</v>
+      </c>
+      <c r="G15" s="10">
+        <v>353394</v>
+      </c>
+      <c r="H15" s="9">
+        <v>538.79999999999995</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1">
-        <v>54</v>
-      </c>
-      <c r="C15" s="1">
-        <v>78</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="F15" s="1">
-        <v>59.7</v>
-      </c>
-      <c r="G15" s="9">
-        <v>353394</v>
-      </c>
-      <c r="H15" s="1">
-        <v>538.79999999999995</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="21">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="K15" s="15">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="B16" s="1">
         <v>52</v>
@@ -1400,25 +1464,25 @@
       <c r="F16" s="1">
         <v>67.2</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="2">
         <v>838534</v>
       </c>
       <c r="H16" s="1">
         <v>1208.5999999999999</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="20">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17" s="15" t="s">
         <v>47</v>
-      </c>
-      <c r="K16" s="15">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="B17" s="1">
         <v>46</v>
@@ -1435,25 +1499,25 @@
       <c r="F17" s="1">
         <v>62.9</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="2">
         <v>818627</v>
       </c>
       <c r="H17" s="1">
         <v>1207.5</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="20">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="K17" s="15">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
@@ -1470,7 +1534,7 @@
       <c r="F18" s="1">
         <v>35.6</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="2">
         <v>126380</v>
       </c>
       <c r="H18" s="1">
@@ -1480,15 +1544,15 @@
         <v>82</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="20">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="K18" s="15">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -1505,7 +1569,7 @@
       <c r="F19" s="1">
         <v>11.2</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="2">
         <v>15635</v>
       </c>
       <c r="H19" s="1">
@@ -1517,48 +1581,48 @@
       <c r="J19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="20">
         <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="9">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9">
+        <v>66</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E20" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="F20" s="9">
+        <v>40.9</v>
+      </c>
+      <c r="G20" s="10">
+        <v>683893</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1682.1</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1">
-        <v>27</v>
-      </c>
-      <c r="C20" s="1">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E20" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="F20" s="1">
-        <v>40.9</v>
-      </c>
-      <c r="G20" s="9">
-        <v>683893</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1682.1</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="21">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="K20" s="15">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="B21" s="1">
         <v>56</v>
@@ -1575,25 +1639,25 @@
       <c r="F21" s="1">
         <v>71.8</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="2">
         <v>287332</v>
       </c>
       <c r="H21" s="1">
         <v>412</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="20">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="K21" s="15">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>55</v>
@@ -1610,31 +1674,31 @@
       <c r="F22" s="1">
         <v>63.9</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="2">
         <v>188194</v>
       </c>
       <c r="H22" s="1">
         <v>307</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="20">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="15" t="s">
         <v>62</v>
-      </c>
-      <c r="K22" s="15">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="B23" s="1">
         <v>73</v>
       </c>
       <c r="C23" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D23" s="1">
         <v>8.9</v>
@@ -1645,60 +1709,60 @@
       <c r="F23" s="1">
         <v>86.4</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="2">
         <v>55582</v>
       </c>
       <c r="H23" s="1">
         <v>64.3</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="20">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="15">
-        <v>16.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+      <c r="B24" s="9">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9">
+        <v>91</v>
+      </c>
+      <c r="D24" s="9">
+        <v>5.3</v>
+      </c>
+      <c r="E24" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="F24" s="9">
+        <v>73.5</v>
+      </c>
+      <c r="G24" s="10">
+        <v>216411</v>
+      </c>
+      <c r="H24" s="9">
+        <v>354.3</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="1">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1">
-        <v>91</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="F24" s="1">
-        <v>73.5</v>
-      </c>
-      <c r="G24" s="9">
-        <v>216411</v>
-      </c>
-      <c r="H24" s="1">
-        <v>354.3</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="21">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="15" t="s">
         <v>68</v>
-      </c>
-      <c r="K24" s="15">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="B25" s="1">
         <v>74</v>
@@ -1715,31 +1779,31 @@
       <c r="F25" s="1">
         <v>97.3</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="2">
         <v>143443</v>
       </c>
       <c r="H25" s="1">
         <v>179.6</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="20">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="K25" s="15">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="B26" s="1">
         <v>63</v>
       </c>
       <c r="C26" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1">
         <v>3.2</v>
@@ -1750,31 +1814,31 @@
       <c r="F26" s="1">
         <v>85.7</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="2">
         <v>137233</v>
       </c>
       <c r="H26" s="1">
         <v>351.1</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="K26" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="B27" s="1">
         <v>40</v>
       </c>
       <c r="C27" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
         <v>1.4</v>
@@ -1785,7 +1849,7 @@
       <c r="F27" s="1">
         <v>67.900000000000006</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="2">
         <v>200733</v>
       </c>
       <c r="H27" s="1">
@@ -1797,13 +1861,13 @@
       <c r="J27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="20">
         <v>3.9</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
-        <v>76</v>
+      <c r="A28" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>46</v>
@@ -1820,31 +1884,31 @@
       <c r="F28" s="1">
         <v>74</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="2">
         <v>160452</v>
       </c>
       <c r="H28" s="1">
         <v>374.6</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="20">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="17" t="s">
         <v>78</v>
-      </c>
-      <c r="K28" s="15">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="B29" s="11">
         <v>37</v>
       </c>
       <c r="C29" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="11">
         <v>1.3</v>
@@ -1862,36 +1926,50 @@
         <v>1772.2</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="J29" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="16">
+      <c r="K29" s="22">
         <v>3.1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:K31"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/20250216report_table1.xlsx
+++ b/20250216report_table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\paperwork\0_UCSB_DWR_Project\2025_RT_Reports\20250216_RT_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED62DBA4-DAC4-410C-84B1-CBDBC2CDA438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557DFD00-DA1E-457F-9DB3-721B02F42EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49703" yWindow="10297" windowWidth="21600" windowHeight="11453" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="90">
   <si>
     <t>2/1/2025</t>
   </si>
@@ -136,9 +136,6 @@
     <t>23.5 ( 5 )</t>
   </si>
   <si>
-    <t>Tuolomne</t>
-  </si>
-  <si>
     <t>11.1 ( 7 )</t>
   </si>
   <si>
@@ -283,10 +280,16 @@
     <t>* This is a comparison to the SNODAS (SNOw Data Assimilation System) nationwide product from the National Weather Service.</t>
   </si>
   <si>
-    <t>Vol (af)‡</t>
-  </si>
-  <si>
     <t>&gt;5000'</t>
+  </si>
+  <si>
+    <t>Tuolumne</t>
+  </si>
+  <si>
+    <t>Vol (af)</t>
+  </si>
+  <si>
+    <t>2/16/2025‡</t>
   </si>
 </sst>
 </file>
@@ -904,7 +907,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -942,7 +945,7 @@
         <v>1</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -975,10 +978,10 @@
         <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>8</v>
@@ -987,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -1156,10 +1159,10 @@
         <v>239.6</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" s="21">
         <v>12.2</v>
@@ -1296,10 +1299,10 @@
         <v>91.9</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="21">
         <v>5.7</v>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B14" s="1">
         <v>57</v>
@@ -1401,10 +1404,10 @@
         <v>910</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="K14" s="20">
         <v>14.9</v>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="9">
         <v>54</v>
@@ -1436,10 +1439,10 @@
         <v>538.79999999999995</v>
       </c>
       <c r="I15" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="K15" s="21">
         <v>14.3</v>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
         <v>52</v>
@@ -1471,10 +1474,10 @@
         <v>1208.5999999999999</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="K16" s="20">
         <v>12.8</v>
@@ -1482,7 +1485,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
         <v>46</v>
@@ -1506,10 +1509,10 @@
         <v>1207.5</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="K17" s="20">
         <v>13.1</v>
@@ -1517,7 +1520,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
@@ -1541,10 +1544,10 @@
         <v>314.2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" s="20">
         <v>9.6999999999999993</v>
@@ -1552,7 +1555,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -1576,10 +1579,10 @@
         <v>137.6</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K19" s="20">
         <v>3.2</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="9">
         <v>27</v>
@@ -1611,10 +1614,10 @@
         <v>1682.1</v>
       </c>
       <c r="I20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="K20" s="21">
         <v>5.9</v>
@@ -1622,7 +1625,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>56</v>
@@ -1646,10 +1649,10 @@
         <v>412</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="K21" s="20">
         <v>15.8</v>
@@ -1657,7 +1660,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1">
         <v>55</v>
@@ -1681,10 +1684,10 @@
         <v>307</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="K22" s="20">
         <v>13.5</v>
@@ -1692,7 +1695,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1">
         <v>73</v>
@@ -1716,10 +1719,10 @@
         <v>64.3</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="K23" s="20">
         <v>16.3</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="9">
         <v>61</v>
@@ -1751,10 +1754,10 @@
         <v>354.3</v>
       </c>
       <c r="I24" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="K24" s="21">
         <v>10.6</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1">
         <v>74</v>
@@ -1786,10 +1789,10 @@
         <v>179.6</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="K25" s="20">
         <v>16.8</v>
@@ -1797,7 +1800,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1">
         <v>63</v>
@@ -1821,10 +1824,10 @@
         <v>351.1</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="K26" s="20">
         <v>8</v>
@@ -1832,7 +1835,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1">
         <v>40</v>
@@ -1856,10 +1859,10 @@
         <v>1004.9</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K27" s="20">
         <v>3.9</v>
@@ -1867,7 +1870,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1">
         <v>46</v>
@@ -1891,10 +1894,10 @@
         <v>374.6</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="K28" s="20">
         <v>6.9</v>
@@ -1902,7 +1905,7 @@
     </row>
     <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="11">
         <v>37</v>
@@ -1926,10 +1929,10 @@
         <v>1772.2</v>
       </c>
       <c r="I29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="K29" s="22">
         <v>3.1</v>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="31" spans="1:11" s="23" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
@@ -1952,17 +1955,17 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
